--- a/FORM.xlsx
+++ b/FORM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Efraim\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetoA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAC2D5-6E18-438F-B2E8-4B78C9712FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17615B30-0AA1-463B-90EE-036E42B4AB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4F8202C7-BBCE-4570-A40E-70C168084830}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F8202C7-BBCE-4570-A40E-70C168084830}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>FORMULÁRIO DE ASSISTÊNCIA 
 TÉCNICA</t>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>OAS -   ㅤ</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -541,6 +544,117 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,117 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,7 +1254,7 @@
   <dimension ref="C2:L51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:K17"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,49 +1272,51 @@
   <sheetData>
     <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:12" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="3:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="3:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="45"/>
       <c r="F5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="3:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1330,18 +1335,18 @@
       <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="3:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1360,8 +1365,8 @@
       <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1389,17 +1394,17 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="3:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="3:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1417,16 +1422,16 @@
       <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="27" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="3:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1442,17 +1447,17 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="3:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="3:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1468,17 +1473,17 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="3:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="3:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1494,17 +1499,17 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="3:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="3:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1520,65 +1525,65 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="3:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="3:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1594,139 +1599,139 @@
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="38" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="33"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="39"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="3:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="3:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="3:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="42"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="3:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="3:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="3:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="42"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="3:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="42"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="3:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="3:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="42"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="3:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1742,111 +1747,111 @@
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="3:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="27" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="55" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="57"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="57"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="57"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="21"/>
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="55" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="57"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="57"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="55"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="57"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="36"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="37"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
@@ -1911,6 +1916,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C21:D25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="C28:F37"/>
+    <mergeCell ref="G28:K37"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="G46:K46"/>
     <mergeCell ref="C39:F39"/>
@@ -1919,36 +1954,6 @@
     <mergeCell ref="C43:F45"/>
     <mergeCell ref="G40:K42"/>
     <mergeCell ref="G43:K45"/>
-    <mergeCell ref="C28:F37"/>
-    <mergeCell ref="G28:K37"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C21:D25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" verticalDpi="300" r:id="rId1"/>
